--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230808066B001</t>
+          <t>GSD230925031B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23880066</t>
+          <t>239Q0031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023080800001</t>
+          <t>HSTQ2023092500001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230808067B001</t>
+          <t>GSD230925032B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23880067</t>
+          <t>239Q0032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023080800001</t>
+          <t>HSTQ2023092500001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230808068B001</t>
+          <t>GSD230925033B001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23880068</t>
+          <t>239Q0033</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HSTQ2023080800001</t>
+          <t>HSTQ2023092500001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230808069B001</t>
+          <t>GSD230925034B001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23880069</t>
+          <t>239Q0034</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HSTQ2023080800001</t>
+          <t>HSTQ2023092500001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230808070B001</t>
+          <t>GSD230925035B001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23880070</t>
+          <t>239Q0035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HSTQ2023080800001</t>
+          <t>HSTQ2023092500001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925031B001</t>
+          <t>GSD230926086B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239Q0031</t>
+          <t>239R0086</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925032B001</t>
+          <t>GSD230926087B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239Q0032</t>
+          <t>239R0087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925033B001</t>
+          <t>GSD230926088B001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>239Q0033</t>
+          <t>239R0088</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925034B001</t>
+          <t>GSD230926089B001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>239Q0034</t>
+          <t>239R0089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925035B001</t>
+          <t>GSD230926090B001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239Q0035</t>
+          <t>239R0090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -1,34 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDFCD3-0B44-4DAB-A7B6-D1830184F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>实验室号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>GSD240109033B001</t>
+  </si>
+  <si>
+    <t>GSD240109034B001</t>
+  </si>
+  <si>
+    <t>GSD240109035B001</t>
+  </si>
+  <si>
+    <t>GSD240109036B001</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +87,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,152 +389,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>实验室号</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSD230926086B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>239R0086</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HSTQ2023092600003</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSD230926087B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>239R0087</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HSTQ2023092600003</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSD230926088B001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>239R0088</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HSTQ2023092600003</t>
-        </is>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD230926089B001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>239R0089</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HSTQ2023092600003</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSD230926090B001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>239R0090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>HSTQ2023092600003</t>
-        </is>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -1,74 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDFCD3-0B44-4DAB-A7B6-D1830184F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>GSD240109033B001</t>
-  </si>
-  <si>
-    <t>GSD240109034B001</t>
-  </si>
-  <si>
-    <t>GSD240109035B001</t>
-  </si>
-  <si>
-    <t>GSD240109036B001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,57 +408,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240116035B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241F0038</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240116036B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241F0039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240116037B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241F0040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240116038B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241F0041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240116039B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241F0042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,116 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSD240116035B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>241F0038</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HSTQD2024011600003</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSD240116036B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>241F0039</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HSTQD2024011600003</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSD240116037B001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>241F0040</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HSTQD2024011600003</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD240116038B001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>241F0041</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HSTQD2024011600003</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSD240116039B001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>241F0042</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mpcr</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>HSTQD2024011600003</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240130079B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241V0077</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240130080B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241V0078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240130081B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241V0079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240130082B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241V0080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240130083B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241V0081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mpcr</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mpcr_id_lims.xlsx
+++ b/data/excel_doc/mpcr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240130079B001</t>
+          <t>GSD240219061B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241V0077</t>
+          <t>242J0061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQD2024013000004</t>
+          <t>HSTQD2024021900003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240130080B001</t>
+          <t>GSD240219062B001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>241V0078</t>
+          <t>242J0062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQD2024013000004</t>
+          <t>HSTQD2024021900003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240130081B001</t>
+          <t>GSD240219063B001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241V0079</t>
+          <t>242J0063</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HSTQD2024013000004</t>
+          <t>HSTQD2024021900003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240130082B001</t>
+          <t>GSD240219064B001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>241V0080</t>
+          <t>242J0064</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HSTQD2024013000004</t>
+          <t>HSTQD2024021900003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240130083B001</t>
+          <t>GSD240219065B001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>241V0081</t>
+          <t>242J0065</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HSTQD2024013000004</t>
+          <t>HSTQD2024021900003</t>
         </is>
       </c>
     </row>
